--- a/data/trans_orig/P04C05_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>238408</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208287</v>
+        <v>209608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>264420</v>
+        <v>265004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3457074228416397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3020297806385549</v>
+        <v>0.3039459106424043</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3834262688248518</v>
+        <v>0.3842732338982665</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>386</v>
@@ -762,19 +762,19 @@
         <v>226014</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>203659</v>
+        <v>204653</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>246345</v>
+        <v>247224</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3082957268803231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2778023047692332</v>
+        <v>0.2791570484924664</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.336028409622102</v>
+        <v>0.33722671912834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>621</v>
@@ -783,19 +783,19 @@
         <v>464423</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>431612</v>
+        <v>431556</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>497585</v>
+        <v>502887</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3264298373366059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3033684696334373</v>
+        <v>0.3033290251993817</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.349739144200123</v>
+        <v>0.353465742475241</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1319</v>
+        <v>689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13842</v>
+        <v>11798</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006227456233245699</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001913171073235577</v>
+        <v>0.0009992876239251175</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02007202793192809</v>
+        <v>0.01710725186887815</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>4206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1839</v>
+        <v>1908</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8638</v>
+        <v>8477</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005737408340473689</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00250814304183396</v>
+        <v>0.002602911962180762</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01178252382342481</v>
+        <v>0.01156323828164753</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -854,19 +854,19 @@
         <v>8501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4310</v>
+        <v>4373</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15826</v>
+        <v>16992</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005974943217951174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003029247160155332</v>
+        <v>0.003073423920693275</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01112396512674659</v>
+        <v>0.01194314669354906</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>446921</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>420728</v>
+        <v>420748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>475496</v>
+        <v>475127</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6480651209251146</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6100826503395378</v>
+        <v>0.6101118897523408</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6895001693309629</v>
+        <v>0.6889658382649513</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>846</v>
@@ -904,19 +904,19 @@
         <v>502888</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>481047</v>
+        <v>480736</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>525480</v>
+        <v>524227</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6859668647792033</v>
+        <v>0.6859668647792032</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.656174229404292</v>
+        <v>0.6557492370320995</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7167822553798081</v>
+        <v>0.7150731220366581</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1336</v>
@@ -925,19 +925,19 @@
         <v>949810</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>915670</v>
+        <v>913426</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>982719</v>
+        <v>983467</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6675952194454429</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6435995503019486</v>
+        <v>0.6420218421979536</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.690726395184321</v>
+        <v>0.6912522046430417</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>212343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>182472</v>
+        <v>185335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>242817</v>
+        <v>248465</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2024398357661604</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1739623426025527</v>
+        <v>0.1766915960224808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2314929906602793</v>
+        <v>0.2368778752812063</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -1050,19 +1050,19 @@
         <v>238905</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>214859</v>
+        <v>215493</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>264783</v>
+        <v>266572</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2236968068871012</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2011809759208797</v>
+        <v>0.2017751324997717</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2479273756828327</v>
+        <v>0.2496024962979684</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>521</v>
@@ -1071,19 +1071,19 @@
         <v>451248</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>412857</v>
+        <v>417200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>491052</v>
+        <v>492022</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2131640658750035</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.195028782939174</v>
+        <v>0.1970804566718848</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2319671215341731</v>
+        <v>0.2324252849559996</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>14016</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7615</v>
+        <v>7750</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22766</v>
+        <v>23937</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01336217325872145</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007260287288224113</v>
+        <v>0.007388809631404644</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02170450600527775</v>
+        <v>0.02282057489976877</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -1121,19 +1121,19 @@
         <v>10446</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6098</v>
+        <v>6292</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17181</v>
+        <v>17497</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.009780634894875998</v>
+        <v>0.009780634894876</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005709693687065392</v>
+        <v>0.00589113311359929</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01608741885322583</v>
+        <v>0.01638302715073134</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>29</v>
@@ -1142,19 +1142,19 @@
         <v>24461</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16916</v>
+        <v>16640</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>34886</v>
+        <v>37046</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01155527229719688</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.007991094510538539</v>
+        <v>0.007860425667551876</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01647965034326103</v>
+        <v>0.01750015718736711</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>822559</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>792209</v>
+        <v>787119</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>853699</v>
+        <v>849344</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7841979909751181</v>
+        <v>0.7841979909751182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7552640278304711</v>
+        <v>0.7504109921809975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8138857400804169</v>
+        <v>0.8097341716121442</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1161</v>
@@ -1192,19 +1192,19 @@
         <v>818636</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>793170</v>
+        <v>789320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>843859</v>
+        <v>841991</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7665225582180228</v>
+        <v>0.766522558218023</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7426772156451963</v>
+        <v>0.7390723282195084</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7901395294200835</v>
+        <v>0.7883910885555118</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1927</v>
@@ -1213,19 +1213,19 @@
         <v>1641195</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1600120</v>
+        <v>1600262</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1680272</v>
+        <v>1676680</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7752806618277996</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7558776774431826</v>
+        <v>0.7559445135144625</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7937403270555482</v>
+        <v>0.7920433690314607</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>266720</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>236883</v>
+        <v>235921</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>299840</v>
+        <v>302021</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3326120443691984</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.295404280508451</v>
+        <v>0.2942046158173537</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3739144133294056</v>
+        <v>0.3766336967796988</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>391</v>
@@ -1338,19 +1338,19 @@
         <v>305999</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>278345</v>
+        <v>280691</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>332097</v>
+        <v>332067</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3773712381415095</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3432671570915979</v>
+        <v>0.3461603017349698</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4095562293210286</v>
+        <v>0.4095193922877546</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>602</v>
@@ -1359,19 +1359,19 @@
         <v>572719</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>532467</v>
+        <v>534656</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>612490</v>
+        <v>618797</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3551161929841352</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.330157910940047</v>
+        <v>0.3315148194611452</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3797762418378548</v>
+        <v>0.38368668812343</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>13854</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7475</v>
+        <v>7235</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24014</v>
+        <v>23540</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01727653183399133</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009321143117942835</v>
+        <v>0.009022926261051138</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02994658491650482</v>
+        <v>0.02935529821696662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1409,19 +1409,19 @@
         <v>8253</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3707</v>
+        <v>3396</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17534</v>
+        <v>18928</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01017827706339014</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004571612440607403</v>
+        <v>0.004187541735864185</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02162334613591232</v>
+        <v>0.02334321573833202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1430,19 +1430,19 @@
         <v>22107</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14086</v>
+        <v>13050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36629</v>
+        <v>34411</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01370765208434954</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008734306465807688</v>
+        <v>0.008091886504475279</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02271162176563421</v>
+        <v>0.02133688860462766</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>521321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487069</v>
+        <v>485220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>551223</v>
+        <v>553268</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6501114237968103</v>
+        <v>0.6501114237968102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6073979839065194</v>
+        <v>0.6050917791541469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6874009230303195</v>
+        <v>0.689951056396332</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>645</v>
@@ -1480,19 +1480,19 @@
         <v>496618</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>468948</v>
+        <v>468376</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>523693</v>
+        <v>521490</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6124504847951004</v>
+        <v>0.6124504847951003</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5783268182481802</v>
+        <v>0.577620361976145</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6458406621393207</v>
+        <v>0.6431229357651129</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1096</v>
@@ -1501,19 +1501,19 @@
         <v>1017939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>974509</v>
+        <v>972066</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1056558</v>
+        <v>1058969</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6311761549315151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6042467472457825</v>
+        <v>0.6027319044326278</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6551218387417831</v>
+        <v>0.6566166034888868</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>187695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164501</v>
+        <v>163087</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>214614</v>
+        <v>217034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1897595891775544</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1663104063909849</v>
+        <v>0.1648807370546037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2169742551461288</v>
+        <v>0.2194210020587313</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>341</v>
@@ -1626,19 +1626,19 @@
         <v>245426</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>222672</v>
+        <v>219666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>270021</v>
+        <v>270225</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2194643545162587</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1991172986868167</v>
+        <v>0.1964294887653344</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2414576140190552</v>
+        <v>0.2416399456720204</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>527</v>
@@ -1647,19 +1647,19 @@
         <v>433121</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>398976</v>
+        <v>397016</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>469380</v>
+        <v>469431</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2055223571655952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1893199045773855</v>
+        <v>0.1883901777462969</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2227280210768204</v>
+        <v>0.2227522177341164</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>21369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12999</v>
+        <v>13199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34337</v>
+        <v>34408</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02160376733950152</v>
+        <v>0.02160376733950153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01314222359259558</v>
+        <v>0.0133446633703271</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03471445247391794</v>
+        <v>0.03478598237601581</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1697,19 +1697,19 @@
         <v>17984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13080</v>
+        <v>12008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25366</v>
+        <v>25492</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01608133280343682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01169631574603767</v>
+        <v>0.01073751748972847</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02268301262227287</v>
+        <v>0.02279579505145403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -1718,19 +1718,19 @@
         <v>39352</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29194</v>
+        <v>28287</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53219</v>
+        <v>52104</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01867329967451346</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01385296074117668</v>
+        <v>0.01342268137346879</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02525305294763791</v>
+        <v>0.02472412524307043</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>780056</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>751006</v>
+        <v>749807</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>804947</v>
+        <v>805697</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.788636643482944</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7592672808016933</v>
+        <v>0.7580546552955386</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8138007041801449</v>
+        <v>0.8145597727538157</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1189</v>
@@ -1768,19 +1768,19 @@
         <v>854885</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>829795</v>
+        <v>830145</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>878057</v>
+        <v>880075</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7644543126803045</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7420178728262755</v>
+        <v>0.7423309780068507</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7851745896826267</v>
+        <v>0.7869793397914079</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1988</v>
@@ -1789,19 +1789,19 @@
         <v>1634942</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1596802</v>
+        <v>1594675</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1670516</v>
+        <v>1671741</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7758043431598914</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7577066747425933</v>
+        <v>0.7566973885017262</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7926849202090143</v>
+        <v>0.7932660366669833</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>905166</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>846735</v>
+        <v>839147</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>966242</v>
+        <v>966780</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2564531199090962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2398984794885098</v>
+        <v>0.2377487064819818</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2737573549633475</v>
+        <v>0.2739099440644952</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1454</v>
@@ -1914,19 +1914,19 @@
         <v>1016345</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>970217</v>
+        <v>965250</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1068406</v>
+        <v>1066571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2724593930985077</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2600934558008679</v>
+        <v>0.2587620077105765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2864157824830123</v>
+        <v>0.2859238884810985</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2271</v>
@@ -1935,19 +1935,19 @@
         <v>1921511</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1848551</v>
+        <v>1838452</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2001598</v>
+        <v>1995842</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2646775123409436</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2546277337675658</v>
+        <v>0.2532365919963544</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2757091832229056</v>
+        <v>0.2749162742140404</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>53533</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40724</v>
+        <v>39563</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72171</v>
+        <v>71159</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01516709118833543</v>
+        <v>0.01516709118833542</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0115380962112389</v>
+        <v>0.01120912930616355</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02044759412252135</v>
+        <v>0.02016101233433917</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>64</v>
@@ -1985,19 +1985,19 @@
         <v>40889</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31368</v>
+        <v>30997</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52265</v>
+        <v>52202</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01096134281555813</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008409158818806521</v>
+        <v>0.008309530470329151</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01401101543025952</v>
+        <v>0.01399424517532163</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>114</v>
@@ -2006,19 +2006,19 @@
         <v>94422</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>78376</v>
+        <v>77732</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>116458</v>
+        <v>116986</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01300608064715549</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01079586878321201</v>
+        <v>0.0107071575006364</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01604142820530841</v>
+        <v>0.01611411470154344</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>2570857</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2507720</v>
+        <v>2508168</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2630312</v>
+        <v>2637850</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7283797889025684</v>
+        <v>0.7283797889025682</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7104916923127581</v>
+        <v>0.7106185207678144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7452245201934878</v>
+        <v>0.7473603119597839</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3841</v>
@@ -2056,19 +2056,19 @@
         <v>2673028</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2620434</v>
+        <v>2620370</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2721175</v>
+        <v>2726115</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7165792640859341</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7024799533115648</v>
+        <v>0.7024628376879107</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7294862315751959</v>
+        <v>0.7308105077403686</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6347</v>
@@ -2077,19 +2077,19 @@
         <v>5243886</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5164534</v>
+        <v>5168251</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5325119</v>
+        <v>5327250</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7223164070119009</v>
+        <v>0.722316407011901</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.711386207343697</v>
+        <v>0.7118981842607053</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7335059202066905</v>
+        <v>0.7337993519014692</v>
       </c>
     </row>
     <row r="23">
